--- a/data/trans_orig/P78C5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78C5_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7813174-E346-4D91-B9C3-1FF513FFAD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4622A516-5BE9-405E-8EAA-379C97605AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8D9A0CE2-AF6E-4404-9075-DE30086844D5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{846F561E-BF01-4D80-BCF2-D625EEF2B7A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,58 +134,58 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,16 +197,16 @@
     <t>55,59%</t>
   </si>
   <si>
-    <t>28,29%</t>
+    <t>27,89%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
   </si>
   <si>
     <t>0%</t>
@@ -215,67 +215,67 @@
     <t>44,41%</t>
   </si>
   <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -690,7 +690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7F4D64-551B-433C-992E-527FF20D08C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C47E32D-D337-4B6C-8735-87E556C94754}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -811,7 +811,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>9688</v>
+        <v>8753</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -826,7 +826,7 @@
         <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>18616</v>
+        <v>16326</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -841,7 +841,7 @@
         <v>40</v>
       </c>
       <c r="N4" s="7">
-        <v>28303</v>
+        <v>25079</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -862,7 +862,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>3941</v>
+        <v>3666</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -877,7 +877,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>3286</v>
+        <v>3065</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -892,7 +892,7 @@
         <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>7228</v>
+        <v>6731</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -913,7 +913,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="7">
-        <v>13629</v>
+        <v>12419</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -928,7 +928,7 @@
         <v>33</v>
       </c>
       <c r="I6" s="7">
-        <v>21902</v>
+        <v>19391</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -943,7 +943,7 @@
         <v>49</v>
       </c>
       <c r="N6" s="7">
-        <v>35531</v>
+        <v>31810</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -966,7 +966,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>24966</v>
+        <v>22277</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -981,7 +981,7 @@
         <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>15508</v>
+        <v>13561</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -996,7 +996,7 @@
         <v>38</v>
       </c>
       <c r="N7" s="7">
-        <v>40474</v>
+        <v>35838</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1017,7 +1017,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>5387</v>
+        <v>5125</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1032,7 +1032,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>4770</v>
+        <v>4516</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1047,7 +1047,7 @@
         <v>13</v>
       </c>
       <c r="N8" s="7">
-        <v>10157</v>
+        <v>9641</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1068,7 +1068,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="7">
-        <v>30353</v>
+        <v>27402</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1083,7 +1083,7 @@
         <v>24</v>
       </c>
       <c r="I9" s="7">
-        <v>20278</v>
+        <v>18077</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1098,7 +1098,7 @@
         <v>51</v>
       </c>
       <c r="N9" s="7">
-        <v>50631</v>
+        <v>45479</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1121,7 +1121,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>3513</v>
+        <v>3211</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1136,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>711</v>
+        <v>663</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
@@ -1151,7 +1151,7 @@
         <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>4225</v>
+        <v>3874</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>55</v>
@@ -1187,7 +1187,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>1803</v>
+        <v>1713</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>59</v>
@@ -1202,7 +1202,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>1802</v>
+        <v>1713</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>60</v>
@@ -1223,7 +1223,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>3513</v>
+        <v>3211</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1238,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>2514</v>
+        <v>2376</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1253,7 +1253,7 @@
         <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>6027</v>
+        <v>5587</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1276,7 +1276,7 @@
         <v>35</v>
       </c>
       <c r="D13" s="7">
-        <v>38167</v>
+        <v>34241</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>62</v>
@@ -1291,7 +1291,7 @@
         <v>47</v>
       </c>
       <c r="I13" s="7">
-        <v>34835</v>
+        <v>30550</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>65</v>
@@ -1306,7 +1306,7 @@
         <v>82</v>
       </c>
       <c r="N13" s="7">
-        <v>73002</v>
+        <v>64791</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>68</v>
@@ -1327,7 +1327,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>9328</v>
+        <v>8791</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>71</v>
@@ -1342,7 +1342,7 @@
         <v>13</v>
       </c>
       <c r="I14" s="7">
-        <v>9859</v>
+        <v>9295</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>74</v>
@@ -1357,7 +1357,7 @@
         <v>24</v>
       </c>
       <c r="N14" s="7">
-        <v>19187</v>
+        <v>18086</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>77</v>
@@ -1378,7 +1378,7 @@
         <v>46</v>
       </c>
       <c r="D15" s="7">
-        <v>47495</v>
+        <v>43032</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1393,7 +1393,7 @@
         <v>60</v>
       </c>
       <c r="I15" s="7">
-        <v>44694</v>
+        <v>39845</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1408,7 +1408,7 @@
         <v>106</v>
       </c>
       <c r="N15" s="7">
-        <v>92189</v>
+        <v>82877</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
